--- a/ARMInspectorGUI/Tmp/Пинск.xlsx
+++ b/ARMInspectorGUI/Tmp/Пинск.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\MyProjects_2021\ARMInspector\ARMInspectorGUI\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects_2021\ARMInspector\ARMInspectorGUI\ExcelDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B7CD7C-C21E-48FD-ADFF-A29C90F5C93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D257E4D-B878-4D65-BBC7-66ADB238C1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пинск" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
   <si>
     <t>№ п/п</t>
   </si>
@@ -752,6 +752,54 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -761,9 +809,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -774,51 +819,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1169,8 +1169,8 @@
   </sheetPr>
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,58 +1204,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
     </row>
     <row r="2" spans="1:31" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
@@ -1276,39 +1276,39 @@
       <c r="AE2" s="23"/>
     </row>
     <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
     </row>
     <row r="4" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
@@ -1350,31 +1350,31 @@
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43" t="s">
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43" t="s">
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
       <c r="R5" s="35" t="s">
         <v>10</v>
       </c>
@@ -1384,14 +1384,14 @@
       <c r="T5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="50" t="s">
+      <c r="U5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="50"/>
-      <c r="W5" s="41" t="s">
+      <c r="V5" s="42"/>
+      <c r="W5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="42"/>
+      <c r="X5" s="58"/>
       <c r="Y5" s="35" t="s">
         <v>15</v>
       </c>
@@ -1407,10 +1407,10 @@
       <c r="AC5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AD5" s="59" t="s">
+      <c r="AD5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="AE5" s="55" t="s">
+      <c r="AE5" s="47" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1498,8 +1498,8 @@
       <c r="AC6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="56"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="48"/>
     </row>
     <row r="7" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1600,38 +1600,38 @@
       <c r="A8" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="58"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
     </row>
     <row r="9" spans="1:31" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1652,8 +1652,8 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="14">
-        <v>1</v>
+      <c r="O9" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
@@ -1669,11 +1669,11 @@
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="15"/>
-      <c r="AD9" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="17">
-        <v>18</v>
+      <c r="AD9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE9" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1715,8 +1715,8 @@
       <c r="AD10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE10" s="17">
-        <v>1</v>
+      <c r="AE10" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1738,8 +1738,8 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="14">
-        <v>1</v>
+      <c r="O11" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
@@ -1755,11 +1755,11 @@
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="15"/>
-      <c r="AD11" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="17">
-        <v>20</v>
+      <c r="AD11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE11" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1781,8 +1781,8 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
-      <c r="O12" s="14">
-        <v>1</v>
+      <c r="O12" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -1798,11 +1798,11 @@
       <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
       <c r="AC12" s="15"/>
-      <c r="AD12" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="17">
-        <v>14</v>
+      <c r="AD12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE12" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1867,8 +1867,8 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="14">
-        <v>1</v>
+      <c r="O14" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -1884,11 +1884,11 @@
       <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="15"/>
-      <c r="AD14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>12</v>
+      <c r="AD14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE14" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="36" x14ac:dyDescent="0.25">
@@ -1973,8 +1973,8 @@
       <c r="AD16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE16" s="17">
-        <v>2</v>
+      <c r="AE16" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2059,8 +2059,8 @@
       <c r="AD18" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE18" s="17">
-        <v>6</v>
+      <c r="AE18" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2102,8 +2102,8 @@
       <c r="AD19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE19" s="17">
-        <v>4</v>
+      <c r="AE19" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2145,8 +2145,8 @@
       <c r="AD20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE20" s="17">
-        <v>2</v>
+      <c r="AE20" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2188,8 +2188,8 @@
       <c r="AD21" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE21" s="17">
-        <v>8</v>
+      <c r="AE21" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -2231,8 +2231,8 @@
       <c r="AD22" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE22" s="17">
-        <v>2</v>
+      <c r="AE22" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2274,46 +2274,46 @@
       <c r="AD23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AE23" s="17">
-        <v>6</v>
+      <c r="AE23" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
     </row>
     <row r="25" spans="1:31" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -2334,8 +2334,8 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
-      <c r="O25" s="18">
-        <v>290</v>
+      <c r="O25" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
@@ -2354,8 +2354,8 @@
       <c r="AD25" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AE25" s="21">
-        <v>1006.3</v>
+      <c r="AE25" s="21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" x14ac:dyDescent="0.25">
@@ -2377,8 +2377,8 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
-      <c r="O26" s="18">
-        <v>290</v>
+      <c r="O26" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
@@ -2397,46 +2397,46 @@
       <c r="AD26" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AE26" s="21">
-        <v>136.30000000000001</v>
+      <c r="AE26" s="21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="46"/>
     </row>
     <row r="28" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -2661,35 +2661,35 @@
       <c r="AE33" s="17"/>
     </row>
     <row r="34" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
       <c r="L34" s="39"/>
       <c r="M34" s="39"/>
       <c r="N34" s="39"/>
       <c r="O34" s="38"/>
-      <c r="P34" s="49" t="s">
+      <c r="P34" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
       <c r="Z34" s="24"/>
       <c r="AA34" s="24"/>
       <c r="AB34" s="24"/>
@@ -2698,12 +2698,12 @@
       <c r="AE34" s="24"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="G35" s="48" t="s">
+      <c r="G35" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -2711,35 +2711,43 @@
       <c r="Q35" s="22"/>
     </row>
     <row r="36" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A3:AE3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="L5:N5"/>
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="P34:Y34"/>
     <mergeCell ref="U5:V5"/>
@@ -2753,14 +2761,6 @@
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="A34:K34"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A3:AE3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.3" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
